--- a/Docs/initial/CheckList/Lab01_ReviewReport (version 2).xlsx
+++ b/Docs/initial/CheckList/Lab01_ReviewReport (version 2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25103"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\Anul3Sem2\VVSS\Lab\01_Tasks\Docs\initial\CheckList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C85508-81D8-4BB5-BEC1-FC2807C7A67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{855D3078-695F-465E-9F7A-24040FB55D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,18 +34,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
+  <si>
+    <t>do not print this form</t>
+  </si>
+  <si>
+    <t>Echipa</t>
+  </si>
+  <si>
+    <t>Review Form. Requirements Defects</t>
+  </si>
+  <si>
+    <t>Numele si prenumele</t>
+  </si>
+  <si>
+    <t>Grupa</t>
+  </si>
+  <si>
+    <t>Student 1:</t>
+  </si>
+  <si>
+    <t>Carp Iulia-Maria</t>
+  </si>
   <si>
     <t>Document  Title:</t>
   </si>
   <si>
+    <t>Requirements Document</t>
+  </si>
+  <si>
+    <t>Student 2:</t>
+  </si>
+  <si>
+    <t>Campean Ariana Deborah</t>
+  </si>
+  <si>
+    <t>Author Name:</t>
+  </si>
+  <si>
+    <t>Firicescu George</t>
+  </si>
+  <si>
+    <t>Student 3:</t>
+  </si>
+  <si>
+    <t>Reviewer Name:</t>
+  </si>
+  <si>
+    <t>Carp Iulia-Maria, Campean Ariana Deborah</t>
+  </si>
+  <si>
     <t xml:space="preserve">Review date: </t>
   </si>
   <si>
-    <t>Reviewer Name:</t>
-  </si>
-  <si>
-    <t>do not print this form</t>
+    <t>07.03.2022</t>
   </si>
   <si>
     <t>Crt. No.</t>
@@ -61,195 +102,191 @@
     <t>Comments/ improvements</t>
   </si>
   <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>Cerinta</t>
+  </si>
+  <si>
+    <t>Nu se specifica ce fel de aplicatie se doreste.</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>Nu se specifica ce tipuri de task-uri pot exista.</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>Nu se specifica lungime maxima/minima a descrierii si formatul pentru data si ora.</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>Functionalitatea de a seta un interval nu este definita corect deoarece un interval mai mare este greu de inteles si precizat de catre utilizator in ore si minute.</t>
+  </si>
+  <si>
+    <t>Nu se precizeaza cum ne vom da seama daca task-ul este activ sau nu.</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>Lipseste atributul id pentru task.</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>Nu se precizeaza cum doreste utilizatorul sa fie afisate task-urile precum si filtrele in functie de care se face afisarea.</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>Nu se specifica care informatii referitoare la un task se vor afisa.</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>Nu se specifica ce atribute se pot modifica de catre utilizator la un task.</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>Nu se specifica atributul in functie de care se face stergerea.</t>
+  </si>
+  <si>
+    <t>Detalii legate de interfata nu sunt specificate.</t>
+  </si>
+  <si>
     <t>Effort to review document (hours):</t>
   </si>
   <si>
-    <t>Author Name:</t>
+    <t>Review Form. Architectural Design Defects</t>
+  </si>
+  <si>
+    <t>Architectural Design Document</t>
   </si>
   <si>
     <t xml:space="preserve">Author Name: </t>
   </si>
   <si>
+    <t>Georgescu Anca</t>
+  </si>
+  <si>
+    <t>Review Form. Coding Defects</t>
+  </si>
+  <si>
+    <t>Coding Document</t>
+  </si>
+  <si>
     <t>Popescu Ionel</t>
   </si>
   <si>
-    <t>Georgescu Anca</t>
-  </si>
-  <si>
-    <t>Firicescu George</t>
-  </si>
-  <si>
-    <t>Requirements Document</t>
-  </si>
-  <si>
-    <t>Architectural Design Document</t>
-  </si>
-  <si>
-    <t>Coding Document</t>
-  </si>
-  <si>
-    <t>Review Form. Coding Defects</t>
-  </si>
-  <si>
-    <t>Review Form. Architectural Design Defects</t>
-  </si>
-  <si>
-    <t>Review Form. Requirements Defects</t>
-  </si>
-  <si>
-    <t>Student 1:</t>
-  </si>
-  <si>
-    <t>Student 2:</t>
-  </si>
-  <si>
-    <t>Student 3:</t>
-  </si>
-  <si>
-    <t>Echipa</t>
-  </si>
-  <si>
-    <t>Grupa</t>
+    <t>Campean Ariana</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervalul pentru filtrare nu ia in calcul taskurile care incep exact in momentul ales </t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>NewEditController</t>
+  </si>
+  <si>
+    <t>Lipseste modificare listei obsevable</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>Notificator</t>
+  </si>
+  <si>
+    <t>Eroare la deschiderea aplicatiei in caz ca nu sunt notificari</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eroare la Edit  si la more in caz ca nu selectezi ceva din lista </t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>Aplicatia crapa la filtrare daca campurile nu sunt completate</t>
+  </si>
+  <si>
+    <t>pom.xml</t>
+  </si>
+  <si>
+    <t>Lifecycle ul de la Maven trebuie curatat si apoi instalat</t>
+  </si>
+  <si>
+    <t>tot proiectul</t>
+  </si>
+  <si>
+    <t>JDK ul nu este specificat la deschiderea proeictului</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Clasele nu repsecta niciun fel de regula la aranjarea in fisiere</t>
+  </si>
+  <si>
+    <t>Tool-based Code Analysis</t>
   </si>
   <si>
     <t>Tool used:</t>
   </si>
   <si>
+    <t>File, Line</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
     <t>Before</t>
   </si>
   <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t>File, Line</t>
-  </si>
-  <si>
     <t>After/Argument</t>
   </si>
   <si>
-    <t>Numele si prenumele</t>
-  </si>
-  <si>
-    <t>Tool-based Code Analysis</t>
-  </si>
-  <si>
     <t>Effort to perform tool-based code analysis (hours):</t>
-  </si>
-  <si>
-    <t>Carp Iulia-Maria, Campean Ariana Deborah</t>
-  </si>
-  <si>
-    <t>07.03.2022</t>
-  </si>
-  <si>
-    <t>R02</t>
-  </si>
-  <si>
-    <t>Cerinta</t>
-  </si>
-  <si>
-    <t>R01</t>
-  </si>
-  <si>
-    <t>R06</t>
-  </si>
-  <si>
-    <t>F01</t>
-  </si>
-  <si>
-    <t>R05</t>
-  </si>
-  <si>
-    <t>Functionalitatea de a seta un interval nu este definita corect deoarece un interval mai mare este greu de inteles si precizat de catre utilizator in ore si minute.</t>
-  </si>
-  <si>
-    <t>Nu se precizeaza cum ne vom da seama daca task-ul este activ sau nu.</t>
-  </si>
-  <si>
-    <t>Nu se specifica lungime maxima/minima a descrierii si formatul pentru data si ora.</t>
-  </si>
-  <si>
-    <t>Nu se specifica ce tipuri de task-uri pot exista.</t>
-  </si>
-  <si>
-    <t>Nu se specifica ce fel de aplicatie se doreste.</t>
-  </si>
-  <si>
-    <t>Lipseste atributul id pentru task.</t>
-  </si>
-  <si>
-    <t>F02</t>
-  </si>
-  <si>
-    <t>Nu se precizeaza cum doreste utilizatorul sa fie afisate task-urile precum si filtrele in functie de care se face afisarea.</t>
-  </si>
-  <si>
-    <t>F03</t>
-  </si>
-  <si>
-    <t>Nu se specifica care informatii referitoare la un task se vor afisa.</t>
-  </si>
-  <si>
-    <t>Carp Iulia-Maria</t>
-  </si>
-  <si>
-    <t>Campean Ariana Deborah</t>
-  </si>
-  <si>
-    <t>F04</t>
-  </si>
-  <si>
-    <t>Nu se specifica ce atribute se pot modifica de catre utilizator la un task.</t>
-  </si>
-  <si>
-    <t>F05</t>
-  </si>
-  <si>
-    <t>Nu se specifica atributul in functie de care se face stergerea.</t>
-  </si>
-  <si>
-    <t>Detalii legate de interfata nu sunt specificate.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,44 +444,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -452,47 +480,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,339 +866,427 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="21" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="34"/>
+      <c r="B2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>51</v>
+        <v>5</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="J3" s="18">
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="31" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="18">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="34"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="H4" s="18" t="s">
+      <c r="D6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="34"/>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="3">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="H5" s="18" t="s">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="34"/>
+      <c r="B10" s="18">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+        <v>24</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="34"/>
+      <c r="B11" s="18">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+        <v>26</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.9">
+      <c r="A12" s="34"/>
+      <c r="B12" s="18">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="1:10" ht="57.6">
+      <c r="A13" s="34"/>
+      <c r="B13" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:10" ht="28.9">
+      <c r="A14" s="34"/>
+      <c r="B14" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="34"/>
+      <c r="B15" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:10" ht="43.15">
+      <c r="A16" s="34"/>
+      <c r="B16" s="18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="2:5" ht="28.9">
+      <c r="B17" s="18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="22" t="s">
+    </row>
+    <row r="18" spans="2:5" ht="28.9">
+      <c r="B18" s="18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="2" t="s">
+    </row>
+    <row r="19" spans="2:5" ht="28.9">
+      <c r="B19" s="18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="18">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="34"/>
+      <c r="C27" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="1"/>
     </row>
   </sheetData>
@@ -1197,171 +1314,255 @@
       <selection activeCell="E29" sqref="E29:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="22" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="22" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="34"/>
+      <c r="B2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="18" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="34"/>
+    <row r="4" spans="1:10">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="34"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="34"/>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="H5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="34"/>
+      <c r="B10" s="18">
         <v>1</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="34"/>
+      <c r="B11" s="18">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="34"/>
+      <c r="B12" s="18">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="34"/>
+      <c r="B13" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="34"/>
+      <c r="B14" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="34"/>
+      <c r="B15" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="34"/>
+      <c r="B16" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1369,8 +1570,8 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
+    <row r="18" spans="2:5">
+      <c r="B18" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1378,8 +1579,8 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
+    <row r="19" spans="2:5">
+      <c r="B19" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1387,8 +1588,8 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
+    <row r="20" spans="2:5">
+      <c r="B20" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1396,8 +1597,8 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
+    <row r="21" spans="2:5">
+      <c r="B21" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1405,8 +1606,8 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
+    <row r="22" spans="2:5">
+      <c r="B22" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1414,8 +1615,8 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
+    <row r="23" spans="2:5">
+      <c r="B23" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1423,8 +1624,8 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
+    <row r="24" spans="2:5">
+      <c r="B24" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1432,8 +1633,8 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
+    <row r="25" spans="2:5">
+      <c r="B25" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1441,8 +1642,8 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="3">
+    <row r="26" spans="2:5">
+      <c r="B26" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1450,14 +1651,18 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="13"/>
+    <row r="27" spans="2:5">
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="34"/>
+      <c r="C28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="11"/>
       <c r="E28" s="1"/>
     </row>
   </sheetData>
@@ -1481,185 +1686,317 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="26.7109375" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="34"/>
+      <c r="B2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="18" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="37" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="34"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="H4" s="18" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="34"/>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="39"/>
-      <c r="H5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:10" ht="30">
+      <c r="A10" s="34"/>
+      <c r="B10" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="34"/>
+      <c r="B11" s="18">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" spans="1:10" ht="30">
+      <c r="A12" s="34"/>
+      <c r="B12" s="18">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="1:10" ht="30">
+      <c r="A13" s="34"/>
+      <c r="B13" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:10" ht="30">
+      <c r="A14" s="34"/>
+      <c r="B14" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="1:10" ht="30">
+      <c r="A15" s="34"/>
+      <c r="B15" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:10" ht="30">
+      <c r="A16" s="34"/>
+      <c r="B16" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
+      <c r="D16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="2:5" ht="30">
+      <c r="B17" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
+      <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1667,8 +2004,8 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
+    <row r="19" spans="2:5">
+      <c r="B19" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1676,8 +2013,8 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
+    <row r="20" spans="2:5">
+      <c r="B20" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1685,8 +2022,8 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
+    <row r="21" spans="2:5">
+      <c r="B21" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1694,8 +2031,8 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
+    <row r="22" spans="2:5">
+      <c r="B22" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1703,8 +2040,8 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
+    <row r="23" spans="2:5">
+      <c r="B23" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1712,8 +2049,8 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
+    <row r="24" spans="2:5">
+      <c r="B24" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1721,8 +2058,8 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
+    <row r="25" spans="2:5">
+      <c r="B25" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1730,8 +2067,8 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="3">
+    <row r="26" spans="2:5">
+      <c r="B26" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1739,8 +2076,8 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="3">
+    <row r="27" spans="2:5">
+      <c r="B27" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1748,8 +2085,8 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="3">
+    <row r="28" spans="2:5">
+      <c r="B28" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1757,8 +2094,8 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="3">
+    <row r="29" spans="2:5">
+      <c r="B29" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1766,8 +2103,8 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="3">
+    <row r="30" spans="2:5">
+      <c r="B30" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1775,14 +2112,18 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="13"/>
+    <row r="31" spans="2:5">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="34"/>
+      <c r="C32" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="11"/>
       <c r="E32" s="1"/>
     </row>
   </sheetData>
@@ -1810,113 +2151,152 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="5" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="26.7109375" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="34"/>
+      <c r="B2" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="18" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+    <row r="4" spans="1:10">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
+        <v>13</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="34"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="34"/>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="34"/>
+      <c r="B10" s="18">
         <v>1</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="34"/>
+      <c r="B11" s="18">
         <f>B10+1</f>
         <v>2</v>
       </c>
@@ -1924,9 +2304,14 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="34"/>
+      <c r="B12" s="18">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
@@ -1934,9 +2319,14 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="34"/>
+      <c r="B13" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1944,9 +2334,14 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="34"/>
+      <c r="B14" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1954,9 +2349,14 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="34"/>
+      <c r="B15" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1964,9 +2364,14 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="34"/>
+      <c r="B16" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1974,9 +2379,13 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1985,8 +2394,8 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
+    <row r="18" spans="2:6">
+      <c r="B18" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1995,8 +2404,8 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
+    <row r="19" spans="2:6">
+      <c r="B19" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2005,8 +2414,8 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
+    <row r="20" spans="2:6">
+      <c r="B20" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -2015,8 +2424,8 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
+    <row r="21" spans="2:6">
+      <c r="B21" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2025,8 +2434,8 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
+    <row r="22" spans="2:6">
+      <c r="B22" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -2035,8 +2444,8 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
+    <row r="23" spans="2:6">
+      <c r="B23" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -2045,8 +2454,8 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
+    <row r="24" spans="2:6">
+      <c r="B24" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2055,8 +2464,8 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
+    <row r="25" spans="2:6">
+      <c r="B25" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -2065,8 +2474,8 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="3">
+    <row r="26" spans="2:6">
+      <c r="B26" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -2075,8 +2484,8 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="3">
+    <row r="27" spans="2:6">
+      <c r="B27" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -2085,8 +2494,8 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="3">
+    <row r="28" spans="2:6">
+      <c r="B28" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -2095,8 +2504,8 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="3">
+    <row r="29" spans="2:6">
+      <c r="B29" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2105,8 +2514,8 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="3">
+    <row r="30" spans="2:6">
+      <c r="B30" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -2115,16 +2524,21 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="19"/>
+    <row r="31" spans="2:6">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="34"/>
+      <c r="C32" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Docs/initial/CheckList/Lab01_ReviewReport (version 2).xlsx
+++ b/Docs/initial/CheckList/Lab01_ReviewReport (version 2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\Anul3Sem2\VVSS\Lab\01_Tasks\Docs\initial\CheckList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{855D3078-695F-465E-9F7A-24040FB55D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D5111F4-7156-4979-BA66-BB53CF947751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
   <si>
     <t>do not print this form</t>
   </si>
@@ -120,13 +120,13 @@
     <t>F01</t>
   </si>
   <si>
-    <t>Nu se specifica lungime maxima/minima a descrierii si formatul pentru data si ora.</t>
+    <t>Nu se specifica lungime maxima/minima a descrierii si formatul pentru data si ora</t>
   </si>
   <si>
     <t>R05</t>
   </si>
   <si>
-    <t>Functionalitatea de a seta un interval nu este definita corect deoarece un interval mai mare este greu de inteles si precizat de catre utilizator in ore si minute.</t>
+    <t>detalii legate de interfata nu sunt specificate.</t>
   </si>
   <si>
     <t>Nu se precizeaza cum ne vom da seama daca task-ul este activ sau nu.</t>
@@ -165,6 +165,12 @@
     <t>Detalii legate de interfata nu sunt specificate.</t>
   </si>
   <si>
+    <t>Lipseste atributul de titlu</t>
+  </si>
+  <si>
+    <t>Lipsesc mesajele de in caz de erori</t>
+  </si>
+  <si>
     <t>Effort to review document (hours):</t>
   </si>
   <si>
@@ -207,7 +213,7 @@
     <t>NewEditController</t>
   </si>
   <si>
-    <t>Lipseste modificare listei obsevable</t>
+    <t>Lipseste modificare listei obsevable(pentru add si edit)</t>
   </si>
   <si>
     <t>C01</t>
@@ -253,6 +259,24 @@
   </si>
   <si>
     <t>Clasele nu repsecta niciun fel de regula la aranjarea in fisiere</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>In loc de variabila descriere avem variabila  titlu</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nu sunt puse mesaje de alert in caz ca utilizatorul </t>
+  </si>
+  <si>
+    <t>Apar erori la popup ul cu notificari daca fereastra aplicatiei nu e deschisa</t>
+  </si>
+  <si>
+    <t>Validarile facute in constructor</t>
   </si>
   <si>
     <t>Tool-based Code Analysis</t>
@@ -480,8 +504,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -518,10 +546,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,8 +890,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -887,27 +911,27 @@
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="34"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18" t="s">
         <v>3</v>
@@ -917,13 +941,13 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="18" t="s">
         <v>5</v>
       </c>
@@ -935,17 +959,17 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="18" t="s">
         <v>9</v>
       </c>
@@ -957,17 +981,17 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="18" t="s">
         <v>13</v>
       </c>
@@ -975,39 +999,39 @@
       <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="34"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="34"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
@@ -1020,14 +1044,14 @@
       <c r="E9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="34"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="18">
         <v>1</v>
       </c>
@@ -1040,14 +1064,14 @@
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="34"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="18">
         <f>B10+1</f>
         <v>2</v>
@@ -1061,14 +1085,14 @@
       <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.9">
-      <c r="A12" s="34"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" ht="30">
+      <c r="A12" s="21"/>
       <c r="B12" s="18">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
@@ -1082,14 +1106,14 @@
       <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-    </row>
-    <row r="13" spans="1:10" ht="57.6">
-      <c r="A13" s="34"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="21"/>
       <c r="B13" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1103,14 +1127,14 @@
       <c r="E13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" ht="28.9">
-      <c r="A14" s="34"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1124,14 +1148,14 @@
       <c r="E14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="34"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1145,14 +1169,14 @@
       <c r="E15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10" ht="43.15">
-      <c r="A16" s="34"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1166,11 +1190,11 @@
       <c r="E16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:5" ht="28.9">
       <c r="B17" s="18">
@@ -1230,23 +1254,31 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" ht="15">
       <c r="B21" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="C21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15">
       <c r="B22" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
+      <c r="E22" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="18">
@@ -1276,15 +1308,15 @@
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="34"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="1"/>
@@ -1330,27 +1362,27 @@
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="34"/>
-      <c r="B2" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18" t="s">
         <v>3</v>
@@ -1360,13 +1392,13 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1374,17 +1406,17 @@
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="D4" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="18" t="s">
         <v>9</v>
       </c>
@@ -1392,17 +1424,17 @@
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
+        <v>48</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="18" t="s">
         <v>13</v>
       </c>
@@ -1410,35 +1442,35 @@
       <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="34"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="34"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
@@ -1451,28 +1483,28 @@
       <c r="E9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="34"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="18">
         <v>1</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="34"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="18">
         <f>B10+1</f>
         <v>2</v>
@@ -1480,14 +1512,14 @@
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="34"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="18">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
@@ -1495,14 +1527,14 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="34"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1510,14 +1542,14 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="34"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1525,14 +1557,14 @@
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="34"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1540,14 +1572,14 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="34"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1555,11 +1587,11 @@
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="18">
@@ -1652,15 +1684,15 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="34"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="1"/>
@@ -1686,8 +1718,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1707,27 +1739,27 @@
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="34"/>
-      <c r="B2" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18" t="s">
         <v>3</v>
@@ -1737,13 +1769,13 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1751,17 +1783,17 @@
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="D4" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="18" t="s">
         <v>9</v>
       </c>
@@ -1769,17 +1801,17 @@
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
+      <c r="D5" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="18" t="s">
         <v>13</v>
       </c>
@@ -1787,37 +1819,37 @@
       <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="34"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
+      <c r="D6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="34"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
@@ -1830,155 +1862,155 @@
       <c r="E9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="30">
-      <c r="A10" s="34"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="18">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-    </row>
-    <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="34"/>
+        <v>56</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:10" ht="30">
+      <c r="A11" s="21"/>
       <c r="B11" s="18">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+        <v>59</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" ht="30">
-      <c r="A12" s="34"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="18">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+        <v>62</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10" ht="30">
-      <c r="A13" s="34"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="1:10" ht="30">
+      <c r="A14" s="21"/>
+      <c r="B14" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="1:10" ht="30">
+      <c r="A15" s="21"/>
+      <c r="B15" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-    </row>
-    <row r="14" spans="1:10" ht="30">
-      <c r="A14" s="34"/>
-      <c r="B14" s="18">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-    </row>
-    <row r="15" spans="1:10" ht="30">
-      <c r="A15" s="34"/>
-      <c r="B15" s="18">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
+        <v>69</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10" ht="30">
-      <c r="A16" s="34"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+        <v>71</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:5" ht="30">
       <c r="B17" s="18">
@@ -1986,50 +2018,74 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30">
       <c r="B18" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="C18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="30">
       <c r="B19" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="30">
       <c r="B20" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15">
       <c r="B21" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="18">
@@ -2113,15 +2169,15 @@
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="34"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="1"/>
@@ -2169,27 +2225,27 @@
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="34"/>
-      <c r="B2" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18" t="s">
         <v>3</v>
@@ -2199,13 +2255,13 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="18" t="s">
         <v>5</v>
       </c>
@@ -2213,15 +2269,15 @@
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+        <v>82</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="18" t="s">
         <v>9</v>
       </c>
@@ -2229,15 +2285,15 @@
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="18" t="s">
         <v>13</v>
       </c>
@@ -2245,43 +2301,43 @@
       <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="34"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="34"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
+        <v>86</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="34"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="18">
         <v>1</v>
       </c>
@@ -2289,13 +2345,13 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="34"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="18">
         <f>B10+1</f>
         <v>2</v>
@@ -2304,13 +2360,13 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="34"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="18">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -2319,13 +2375,13 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="34"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2334,13 +2390,13 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="34"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2349,13 +2405,13 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="34"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2364,13 +2420,13 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="34"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2379,10 +2435,10 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="18">
@@ -2525,19 +2581,19 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="34"/>
-      <c r="C32" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="15"/>
     </row>
   </sheetData>

--- a/Docs/initial/CheckList/Lab01_ReviewReport (version 2).xlsx
+++ b/Docs/initial/CheckList/Lab01_ReviewReport (version 2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\Anul3Sem2\VVSS\Lab\01_Tasks\Docs\initial\CheckList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C85508-81D8-4BB5-BEC1-FC2807C7A67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658B8D19-14C4-44AA-BA1C-16851DFFCA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -209,19 +209,68 @@
   </si>
   <si>
     <t>Detalii legate de interfata nu sunt specificate.</t>
+  </si>
+  <si>
+    <t>Clasa Task</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>Clasa Task nu contine atributul "descriere" si are in plus atributul "titlu".</t>
+  </si>
+  <si>
+    <t>Carp Iulia Maria, Campean Ariana Deborah</t>
+  </si>
+  <si>
+    <t>08.03.2022</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>Formatul datei nu ar trebui sa depinda de clasa Task, ci sa se se afle intr-un pachet Utils.</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>Nu ar trebui sa existe validari in constructor. Eventual se poate construi o clasa separata pentru validarea unui Task.</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Controller-ul pentru fereastra principala are numele "Controller", nefiind un nume sugestiv care sa rezume rolul ferestrei.</t>
+  </si>
+  <si>
+    <t>Controller-ul este cel care apeleza functiile care lucreaza cu fisierul. In mod normal ar trebui sa fie apelate in service, iar service-ul sa fie apleat de controller.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,91 +456,95 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -837,8 +890,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,19 +911,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -894,10 +947,10 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -912,10 +965,10 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="35"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -927,19 +980,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1170,7 +1223,9 @@
         <v>8</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1193,8 +1248,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:E31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1213,19 +1268,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1238,31 +1293,39 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="18">
+        <v>232</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="36"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="3">
+        <v>232</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="36"/>
+      <c r="E5" s="38"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1274,15 +1337,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="D6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="D7" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="30"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1298,57 +1365,87 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1502,19 +1599,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1534,10 +1631,10 @@
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="37"/>
+      <c r="E4" s="39"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1548,10 +1645,10 @@
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="41"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1563,15 +1660,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1806,7 +1903,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1828,19 +1925,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1860,8 +1957,8 @@
       <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1872,8 +1969,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1885,8 +1982,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2119,11 +2216,11 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="19"/>
     </row>
   </sheetData>

--- a/Docs/initial/CheckList/Lab01_ReviewReport (version 2).xlsx
+++ b/Docs/initial/CheckList/Lab01_ReviewReport (version 2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\Anul3Sem2\VVSS\Lab\01_Tasks\Docs\initial\CheckList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658B8D19-14C4-44AA-BA1C-16851DFFCA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7B576E-AA33-47EA-A03D-14791F7B67FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Tool-based Code Analysis</t>
   </si>
   <si>
-    <t>Effort to perform tool-based code analysis (hours):</t>
-  </si>
-  <si>
     <t>Carp Iulia-Maria, Campean Ariana Deborah</t>
   </si>
   <si>
@@ -251,19 +248,113 @@
   </si>
   <si>
     <t>Controller-ul este cel care apeleza functiile care lucreaza cu fisierul. In mod normal ar trebui sa fie apelate in service, iar service-ul sa fie apleat de controller.</t>
+  </si>
+  <si>
+    <t>SonarLint</t>
+  </si>
+  <si>
+    <t>Task, 176</t>
+  </si>
+  <si>
+    <t>"clone" should not be overridden</t>
+  </si>
+  <si>
+    <t>S-a inlocuit metoda cu un constructor de copiere.</t>
+  </si>
+  <si>
+    <t>Se folosea metoda clone pentru copiere.</t>
+  </si>
+  <si>
+    <t>Raw types should not be used</t>
+  </si>
+  <si>
+    <t>Se folosea tipul TableView fara a se specifica pentru ce tip de date.</t>
+  </si>
+  <si>
+    <t>S-a parametrizat TableView cu tipul Task.</t>
+  </si>
+  <si>
+    <t>MainWindowController, 39</t>
+  </si>
+  <si>
+    <t>NewEditController</t>
+  </si>
+  <si>
+    <t>"switch" statements should have "default" clauses</t>
+  </si>
+  <si>
+    <t>Switch-ul nu contine un caz default.</t>
+  </si>
+  <si>
+    <t>Am adaugat un caz default in cazul in care id-ul butonului nu corespund cazurilor din switch.</t>
+  </si>
+  <si>
+    <t>Null pointers should not be dereferenced</t>
+  </si>
+  <si>
+    <t>NewEditController, 159-161</t>
+  </si>
+  <si>
+    <t>Nu se intreaba daca collecedFieldstask este null inainte de folosire.</t>
+  </si>
+  <si>
+    <t>Am adaugat un if in care se verifica daca este null.</t>
+  </si>
+  <si>
+    <t>TaskIO, 25</t>
+  </si>
+  <si>
+    <t>Try-with-resources should be used</t>
+  </si>
+  <si>
+    <t>Resursa este initializata inaintea try-ului.</t>
+  </si>
+  <si>
+    <t>Am folosit try with resources.</t>
+  </si>
+  <si>
+    <t>String literals should not be duplicated</t>
+  </si>
+  <si>
+    <t>Eroarea afisata pentru reading si writing exception se repeta.</t>
+  </si>
+  <si>
+    <t>Am declarat string-ul ca si constanta.</t>
+  </si>
+  <si>
+    <t>13.03.2022</t>
+  </si>
+  <si>
+    <t>Campean Ariana-Deborah</t>
+  </si>
+  <si>
+    <t>TaskIO, 72, 92, 127,296</t>
+  </si>
+  <si>
+    <t>45min</t>
+  </si>
+  <si>
+    <t>Effort to perform tool-based code analysis (hours):   30min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -456,97 +547,98 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,7 +982,7 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -937,7 +1029,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J3" s="18">
         <v>232</v>
@@ -955,7 +1047,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="3">
         <v>232</v>
@@ -981,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="30"/>
     </row>
@@ -990,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="30"/>
     </row>
@@ -1013,13 +1105,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1028,13 +1120,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1043,13 +1135,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1058,13 +1150,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1073,13 +1165,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1088,13 +1180,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1103,13 +1195,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1118,13 +1210,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1133,13 +1225,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>53</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1148,13 +1240,13 @@
         <v>10</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="26" t="s">
         <v>55</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -1163,11 +1255,11 @@
         <v>11</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
@@ -1224,7 +1316,7 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1248,8 +1340,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,7 +1386,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J3" s="18">
         <v>232</v>
@@ -1312,7 +1404,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="3">
         <v>232</v>
@@ -1338,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="30"/>
     </row>
@@ -1347,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="30"/>
     </row>
@@ -1370,13 +1462,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1385,13 +1477,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1400,13 +1492,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1415,13 +1507,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="E13" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1430,13 +1522,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1555,7 +1647,9 @@
         <v>8</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1903,16 +1997,16 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="43" style="6" customWidth="1"/>
     <col min="5" max="5" width="24" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
     <col min="7" max="8" width="8.88671875" style="6"/>
@@ -1950,26 +2044,38 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="18">
+        <v>232</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="E4" s="39"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="3">
+        <v>232</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="30" t="s">
+        <v>32</v>
+      </c>
       <c r="E5" s="30"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
@@ -1982,7 +2088,9 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="30" t="s">
+        <v>95</v>
+      </c>
       <c r="E6" s="30"/>
       <c r="F6" s="21"/>
     </row>
@@ -2003,64 +2111,112 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
@@ -2217,7 +2373,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C32" s="42" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="D32" s="43"/>
       <c r="E32" s="43"/>
